--- a/biology/Botanique/Anisotes_zenkeri/Anisotes_zenkeri.xlsx
+++ b/biology/Botanique/Anisotes_zenkeri/Anisotes_zenkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anisotes zenkeri (Lindau) C.B.Clarke est une espèce de plantes de la famille des Acanthaceae et du genre Anisotes, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce décrite en 1900 par Gustav Lindau sous le nom de Himantochilus zenkeri a été ensuite transférée dans le genre Anisotes par Clarke. Elle porte les noms etolu, ndolu ou tolu en langue baka[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce décrite en 1900 par Gustav Lindau sous le nom de Himantochilus zenkeri a été ensuite transférée dans le genre Anisotes par Clarke. Elle porte les noms etolu, ndolu ou tolu en langue baka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe robuste qui peut atteindre 2 m de hauteur[3]. Les feuilles peuvent mesurer jusqu'à 35 centimètres, tandis que le pétiole peut mesurer 3,80 centimètres. Les fleurs sont de couleur vieil orangé doré.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe robuste qui peut atteindre 2 m de hauteur. Les feuilles peuvent mesurer jusqu'à 35 centimètres, tandis que le pétiole peut mesurer 3,80 centimètres. Les fleurs sont de couleur vieil orangé doré.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, cette plante à fleur, qui se retrouve dans les forêts tropicales, est endémique au Cameroun[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, cette plante à fleur, qui se retrouve dans les forêts tropicales, est endémique au Cameroun. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique zenkeri lui a été donnée en hommage au botaniste allemand du XIXe siècle Jonathan Carl Zenker.
 </t>
